--- a/data/income_statement/2digits/size/05_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/05_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>05-Mining of coal and lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>05-Mining of coal and lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>29791.52587</v>
+        <v>35162.91333</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>27916.7368</v>
+        <v>32574.84622</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>28592.45207</v>
+        <v>33424.08512</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>30259.76109</v>
+        <v>34163.36848999999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21484.37738</v>
+        <v>25736.62413</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>24450.98582</v>
+        <v>32942.01612</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>22526.03805</v>
+        <v>29230.70755</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22731.79537</v>
+        <v>29429.02615</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>28363.26718</v>
+        <v>39410.20883</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25242.68188</v>
+        <v>34148.81804</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19804.36219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38347.75945000001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>31583.244</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>28981.54138</v>
+        <v>33739.99065000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>27250.51801</v>
+        <v>31292.90623</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>28086.99193</v>
+        <v>32497.63305</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>29853.40694</v>
+        <v>33605.26817</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>21276.65041</v>
+        <v>25259.2685</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>23794.20221</v>
+        <v>30804.36216</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12944.30208</v>
+        <v>19160.71275</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21983.7017</v>
+        <v>28220.61497</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>27210.17993</v>
+        <v>37197.58582</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22509.39691</v>
+        <v>30857.68539</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16781.4686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33906.51986</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>28603.195</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>60.8777</v>
+        <v>96.11280000000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>194.376</v>
+        <v>199.4713</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>5.22022</v>
+        <v>47.00312</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>52.20651</v>
+        <v>52.79944</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>0.11449</v>
@@ -1049,10 +965,10 @@
         <v>9127.896060000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>0</v>
+        <v>277.56746</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>779.97372</v>
+        <v>791.0266899999999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1522.79808</v>
@@ -1060,128 +976,148 @@
       <c r="M7" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>1051.652</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>749.10679</v>
+        <v>1326.80988</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>471.84279</v>
+        <v>1082.46869</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>500.23992</v>
+        <v>879.44895</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>354.14764</v>
+        <v>505.30088</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>207.61248</v>
+        <v>477.24114</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>651.91188</v>
+        <v>2132.78223</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>453.83991</v>
+        <v>942.09874</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>748.09367</v>
+        <v>930.84372</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>373.11353</v>
+        <v>1421.59632</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1210.48689</v>
+        <v>1768.33457</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3022.89359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4441.23959</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1928.397</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>12.55274</v>
+        <v>16.73438</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>23.94017</v>
+        <v>24.96519</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>21.59499</v>
+        <v>23.17299</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>39</v>
+        <v>44.29183999999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18.90899</v>
+        <v>188.90899</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5.4785</v>
+        <v>73.20225000000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>0.4</v>
+        <v>4.388190000000001</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>19.13435</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>769.25</v>
+        <v>773.5835500000001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>13.9579</v>
+        <v>101.61265</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>25.07474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>29.43322</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>419.152</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2.6925</v>
+        <v>4.7525</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>23.5735</v>
+        <v>24.59852</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21.42602</v>
+        <v>23.00402</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>39</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>18.90899</v>
+        <v>188.90899</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5.4785</v>
+        <v>72.7975</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>0.4</v>
+        <v>4.388190000000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>16.94935</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>0</v>
+        <v>4.33355</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>12.4579</v>
+        <v>100.11265</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8.124739999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.48322</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>419.152</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0.001</v>
@@ -1193,7 +1129,7 @@
         <v>0.16897</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>0</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>9.85924</v>
+        <v>11.98088</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0.36667</v>
@@ -1232,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>0</v>
+        <v>3.09184</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>0</v>
+        <v>0.40475</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>0</v>
@@ -1255,215 +1196,245 @@
       <c r="M12" s="48" t="n">
         <v>16.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>29778.97313</v>
+        <v>35146.17895</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>27892.79663</v>
+        <v>32549.88103</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>28570.85708</v>
+        <v>33400.91213</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>30220.76109</v>
+        <v>34119.07665</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>21465.46839</v>
+        <v>25547.71514</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>24445.50732</v>
+        <v>32868.81387</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>22525.63805</v>
+        <v>29226.31936</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22712.66102</v>
+        <v>29409.8918</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>27594.01718</v>
+        <v>38636.62528</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>25228.72398</v>
+        <v>34047.20539</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>19779.28745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>38318.32623</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31164.092</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>25135.55672</v>
+        <v>28591.2903</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>22663.13623</v>
+        <v>25470.93725</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>21498.80456</v>
+        <v>24879.73424</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>15046.28344</v>
+        <v>18136.06183</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>13985.08569</v>
+        <v>17156.12247</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>19264.47557</v>
+        <v>26566.38812</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20116.6353</v>
+        <v>27457.39545</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19722.8859</v>
+        <v>25618.3694</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>24873.00694</v>
+        <v>31848.00654</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17953.82975</v>
+        <v>23936.13433</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>15916.1607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>26355.00069</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26389.526</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>12518.01289</v>
+        <v>14062.92375</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>10970.31254</v>
+        <v>12326.15855</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8169.367969999999</v>
+        <v>9302.215370000002</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3109.1678</v>
+        <v>3724.43485</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3789.08348</v>
+        <v>6029.49963</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2745.36806</v>
+        <v>5890.07473</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1064.36682</v>
+        <v>4087.80136</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>650.4359499999999</v>
+        <v>2619.17747</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7569.855979999999</v>
+        <v>10954.83084</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6849.27833</v>
+        <v>7874.01687</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10315.05224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17431.09995</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>13101.559</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>9858.510390000001</v>
+        <v>11145.82343</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>9573.267089999999</v>
+        <v>10077.25495</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>10696.70078</v>
+        <v>11540.81118</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>10178.93232</v>
+        <v>12189.66532</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>7199.05877</v>
+        <v>7671.41791</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>13603.44191</v>
+        <v>14343.57017</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7259.65842</v>
+        <v>9247.51152</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>18349.33202</v>
+        <v>20604.66731</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>16843.22185</v>
+        <v>18404.35843</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>8105.26928</v>
+        <v>11776.61992</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4573.944759999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6543.358319999999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>10516.85</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2159.7049</v>
+        <v>2542.2535</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2014.11625</v>
+        <v>2464.1264</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2632.73581</v>
+        <v>3903.41021</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1736.05907</v>
+        <v>2199.83741</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2963.843440000001</v>
+        <v>3422.10493</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2908.5016</v>
+        <v>5332.47237</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11560.82974</v>
+        <v>12646.6673</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>593.49627</v>
+        <v>2176.07802</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>257.97108</v>
+        <v>1966.01851</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2677.45086</v>
+        <v>3130.4401</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>893.1881500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1524.52856</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1521.244</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>599.3285400000001</v>
+        <v>840.28962</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>105.44035</v>
+        <v>603.39735</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>0</v>
+        <v>133.29748</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>22.12425</v>
@@ -1472,112 +1443,127 @@
         <v>33.1</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7.164</v>
+        <v>1000.27085</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>231.78032</v>
+        <v>1475.41527</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>129.62166</v>
+        <v>218.4466</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>201.95803</v>
+        <v>522.79876</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>321.83128</v>
+        <v>1155.05744</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>133.97555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>856.01386</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1249.873</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4643.41641</v>
+        <v>6554.888650000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5229.660400000001</v>
+        <v>7078.94378</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>7072.052519999999</v>
+        <v>8521.177890000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>15174.47765</v>
+        <v>15983.01482</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7480.3827</v>
+        <v>8391.59267</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5181.03175</v>
+        <v>6302.42575</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2409.00275</v>
+        <v>1768.92391</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2989.77512</v>
+        <v>3791.522399999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2721.01024</v>
+        <v>6788.61874</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7274.894230000001</v>
+        <v>10111.07106</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3863.12675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>11963.32554</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4774.566</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5144.86814</v>
+        <v>7417.577199999999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5240.71687</v>
+        <v>9591.15574</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>7170.74691</v>
+        <v>9906.14601</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>33057.92466</v>
+        <v>39968.6419</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5573.900799999999</v>
+        <v>10757.4879</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5352.54575</v>
+        <v>13482.49732</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3282.92332</v>
+        <v>14466.21659</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4206.64487</v>
+        <v>9108.386500000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3819.70674</v>
+        <v>12674.72929</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8218.404410000001</v>
+        <v>17549.99161</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10924.60495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20312.24681</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>23981.223</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>7.28362</v>
+        <v>83.93783999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3.0303</v>
+        <v>184.40336</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>0.4</v>
@@ -1589,13 +1575,13 @@
         <v>40.09627</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>0</v>
+        <v>1191.24935</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>0</v>
+        <v>2.43718</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1e-05</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>658.252</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>884.05092</v>
+        <v>1093.42764</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1475.6857</v>
+        <v>1570.58971</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2040.69601</v>
+        <v>2149.7957</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5445.719099999999</v>
+        <v>5579.04273</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1333.83526</v>
+        <v>1488.93804</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>449.1094000000001</v>
+        <v>777.37324</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>555.88867</v>
+        <v>712.1853600000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>98.36201999999999</v>
+        <v>360.22524</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>245.24786</v>
+        <v>901.23586</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>389.99393</v>
+        <v>1270.82244</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>783.38426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2640.20639</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1333.394</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4253.5336</v>
+        <v>6240.21172</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3762.00087</v>
+        <v>7836.16267</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5129.650900000001</v>
+        <v>7755.95031</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>27593.75326</v>
+        <v>34371.14687</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4199.96927</v>
+        <v>9228.453589999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4903.43635</v>
+        <v>11513.87473</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2727.034650000001</v>
+        <v>13754.03123</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4108.282850000001</v>
+        <v>8745.72408</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3574.45887</v>
+        <v>11773.49342</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7828.40948</v>
+        <v>16279.16817</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10141.22069</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17672.04042</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21989.577</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-501.45173</v>
+        <v>-862.6885500000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-11.05647</v>
+        <v>-2512.21196</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-98.69439</v>
+        <v>-1384.96812</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-17883.44701</v>
+        <v>-23985.62708</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1906.4819</v>
+        <v>-2365.89523</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-171.514</v>
+        <v>-7180.07157</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-873.9205700000001</v>
+        <v>-12697.29268</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1216.86975</v>
+        <v>-5316.8641</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-1098.6965</v>
+        <v>-5886.110549999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-943.51018</v>
+        <v>-7438.92055</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-7061.4782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-8348.921269999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-19206.657</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>224.16988</v>
+        <v>626.3655900000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>241.80279</v>
+        <v>645.51593</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>222.59291</v>
+        <v>877.03341</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>177.59666</v>
+        <v>5084.62684</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>130.69052</v>
+        <v>7987.856479999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>599.7903400000001</v>
+        <v>10003.33646</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>233.28144</v>
+        <v>5464.59075</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>451.38661</v>
+        <v>3114.38909</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>495.7674699999999</v>
+        <v>6712.46222</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>957.27864</v>
+        <v>10622.08641</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>397.90277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>19353.35623</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>29094.27</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>30.13624</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
@@ -1784,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>61.17699</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>481.82014</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>33.33325</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1835,55 +1851,65 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>13226.39681</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2.38764</v>
+        <v>102.54245</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>59.22999000000001</v>
+        <v>180.65196</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>88.05148999999999</v>
+        <v>400.58431</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>23.67191</v>
+        <v>960.68471</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>43.9727</v>
+        <v>303.41713</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>35.51569</v>
+        <v>1017.92946</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>225.53928</v>
+        <v>764.13473</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>364.00994</v>
+        <v>714.3905600000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>303.30515</v>
+        <v>522.60793</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>212.62105</v>
+        <v>1288.36015</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>135.15522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1732.24551</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1262.518</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1898,7 +1924,7 @@
         <v>3.1069</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0</v>
+        <v>3127.37513</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>45</v>
@@ -1943,52 +1974,57 @@
         <v>0</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0</v>
+        <v>0.01534</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0</v>
+        <v>0.48288</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0</v>
+        <v>0.6825599999999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0</v>
+        <v>0.44554</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.9206</v>
+        <v>27.69855</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0</v>
+        <v>35.94771</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1.5253</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0</v>
+        <v>48.34339</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>532.723</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>18.41948</v>
+        <v>290.94992</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>80.27073000000001</v>
+        <v>334.68993</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5.75765</v>
+        <v>343.21345</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>10.62912</v>
+        <v>307.66922</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>0.43007</v>
+        <v>3562.58338</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14.48413</v>
+        <v>4433.938190000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8.337549999999998</v>
+        <v>1481.15867</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>60.57856</v>
+        <v>798.32002</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>92.48492999999999</v>
+        <v>3155.61844</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>355.70944</v>
+        <v>7586.924599999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11.78685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3234.13532</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>10050.917</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,128 +2164,148 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>158.36276</v>
+        <v>187.87322</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>102.30207</v>
+        <v>100.02246</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>128.78377</v>
+        <v>132.75277</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>138.08255</v>
+        <v>3810.37727</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>64.18774999999999</v>
+        <v>970.4353</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>548.8699200000001</v>
+        <v>4462.593269999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>-4.395390000000001</v>
+        <v>2697.72948</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>25.27281</v>
+        <v>1600.15319</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>99.97739</v>
+        <v>2952.55919</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>388.94815</v>
+        <v>1546.80164</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>250.9607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1160.57859</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>17248.112</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>127.10329</v>
+        <v>781.04752</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>89.22782000000001</v>
+        <v>523.21978</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1.46981</v>
+        <v>1317.03917</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>130.41287</v>
+        <v>2706.01635</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9.443770000000001</v>
+        <v>4706.57016</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>57.36611</v>
+        <v>7209.09847</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>32.49039</v>
+        <v>11202.32859</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>21.8955</v>
+        <v>3075.71341</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>588.70561</v>
+        <v>7122.60185</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1343.29099</v>
+        <v>19244.81776</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1911.7557</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>22784.11532</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>46137.454</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>0.26599</v>
+        <v>0.53544</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>0</v>
+        <v>0.12213</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>0</v>
+        <v>0.15051</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>21.84833</v>
+        <v>22.21833</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1.59747</v>
+        <v>2.59123</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>24.86319</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>0.0075</v>
+        <v>2.01989</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>0.3553</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>0</v>
+        <v>6.84905</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>4.25273</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>2.12246</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1.48031</v>
@@ -2252,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>0</v>
+        <v>9435.88149</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>0</v>
+        <v>464.13558</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>0</v>
@@ -2267,13 +2338,18 @@
         <v>0</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1820.37368</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>62.177</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>27.07527</v>
@@ -2303,55 +2379,65 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>70.50273</v>
+        <v>690.29485</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>49.8</v>
+        <v>383.8721</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>0</v>
+        <v>1243.45017</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6.0019</v>
+        <v>59.12235</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>0</v>
+        <v>4605.47551</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>15.31706</v>
+        <v>5306.48227</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8.717139999999999</v>
+        <v>708.98671</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>19.00449</v>
+        <v>396.10375</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>23.117</v>
+        <v>6528.705440000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>39.00756</v>
+        <v>16688.15633</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10.93191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7653.5753</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>33481.256</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>158.48064</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,131 +2516,151 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>27.77899</v>
+        <v>61.66164999999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>28.73747</v>
+        <v>128.5352</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1.46981</v>
+        <v>73.43849</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>102.56264</v>
+        <v>2624.67567</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7.8463</v>
+        <v>98.50342000000002</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17.18586</v>
+        <v>1262.75301</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23.76575</v>
+        <v>896.9598599999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2.53571</v>
+        <v>2215.11878</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>565.58861</v>
+        <v>587.04736</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1300.0307</v>
+        <v>1462.4087</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1899.57379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>13308.04388</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>12592.938</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>99.14508000000001</v>
+        <v>551.72154</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>139.59335</v>
+        <v>647.4991</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>145.75511</v>
+        <v>253.01567</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>118.93892</v>
+        <v>1764.28607</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>840.3456</v>
+        <v>1629.78397</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>321.93685</v>
+        <v>1355.01191</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>258.61584</v>
+        <v>1068.74018</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>487.08334</v>
+        <v>1718.58834</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>226.41437</v>
+        <v>22184.39002</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>912.19502</v>
+        <v>4137.05231</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>519.98856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5094.91927</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3958.41</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>61.44450999999999</v>
+        <v>302.07144</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>128.05139</v>
+        <v>635.95714</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>145.75511</v>
+        <v>253.01567</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>105.69368</v>
+        <v>876.71477</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>165.29653</v>
+        <v>954.7348999999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>199.38872</v>
+        <v>1226.1212</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>258.61584</v>
+        <v>1062.64494</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>487.08334</v>
+        <v>1718.58834</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>226.41437</v>
+        <v>22184.39002</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>912.19502</v>
+        <v>4137.05231</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>519.98856</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5094.91927</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3549.593</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>37.70057</v>
+        <v>249.6501</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>11.54196</v>
@@ -2558,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>13.24524</v>
+        <v>887.5713000000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>675.04907</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>122.54813</v>
+        <v>128.89071</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>0</v>
+        <v>6.09524</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>0</v>
@@ -2581,89 +2692,104 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>408.817</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-503.53022</v>
+        <v>-1569.09202</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1.925150000000009</v>
+        <v>-3037.41491</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-23.32639999999999</v>
+        <v>-2077.98955</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-17955.20214</v>
+        <v>-23371.30266</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1187.38305</v>
+        <v>-714.39288</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>48.97338000000001</v>
+        <v>-5740.845490000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-931.7453600000001</v>
+        <v>-19503.7707</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1274.46198</v>
+        <v>-6996.77676</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-1418.04901</v>
+        <v>-28480.6402</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2241.71755</v>
+        <v>-20198.70421</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-9095.319690000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-16874.59963</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-40208.251</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>797.1673000000001</v>
+        <v>1046.2752</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>873.5603599999999</v>
+        <v>1171.92795</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>328.12394</v>
+        <v>2070.38634</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>114.24128</v>
+        <v>14619.62004</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>501.08311</v>
+        <v>767.7217900000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>132.47112</v>
+        <v>16369.55852</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>713.2612800000001</v>
+        <v>1853.85758</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81.28661</v>
+        <v>1780.71723</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>246.12826</v>
+        <v>14996.2751</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>476.58699</v>
+        <v>10526.50615</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>573.65804</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4995.2187</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5186.585</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>70.91646</v>
@@ -2672,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0</v>
+        <v>0.03773</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
@@ -2681,337 +2807,380 @@
         <v>0</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>11.39614</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>52.93471</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.34368</v>
+        <v>5.914560000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>135.95928</v>
+        <v>135.95945</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0.06548000000000001</v>
+        <v>0.97282</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>351.726</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>726.25084</v>
+        <v>975.35874</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>873.5603599999999</v>
+        <v>1171.92795</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>328.12394</v>
+        <v>2070.34861</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>114.24128</v>
+        <v>14619.62004</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>501.08311</v>
+        <v>767.7217900000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>132.47112</v>
+        <v>16358.16238</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>713.2612800000001</v>
+        <v>1800.92287</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>80.94292999999999</v>
+        <v>1774.80267</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>110.16898</v>
+        <v>14860.31565</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>476.52151</v>
+        <v>10525.53333</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>573.65804</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4995.2187</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4834.859</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>918.6622600000001</v>
+        <v>6258.82802</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>444.20368</v>
+        <v>2810.09622</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3485.58722</v>
+        <v>4122.312370000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20865.89649</v>
+        <v>26447.63873</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3827.78454</v>
+        <v>4908.856960000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>5560.694939999999</v>
+        <v>14738.23806</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2804.81927</v>
+        <v>21263.57403</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5680.677039999999</v>
+        <v>13968.90755</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>658.2041</v>
+        <v>17023.44832</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1690.09563</v>
+        <v>17971.71399</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1995.96506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4461.511570000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>12154.595</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>11.86969</v>
+        <v>328.98844</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>121.49268</v>
+        <v>438.61143</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>216.27405</v>
+        <v>533.3928000000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>190.94148</v>
+        <v>508.06023</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>448.05334</v>
+        <v>837.67381</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>245.33556</v>
+        <v>1657.72716</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>105.79219</v>
+        <v>1179.95541</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>165.10105</v>
+        <v>1821.59935</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>85.75933000000001</v>
+        <v>1202.13207</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>149.74926</v>
+        <v>513.1736599999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>192.00911</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>669.18592</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3383.221</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>0.17991</v>
+        <v>0.24334</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>88.44986999999999</v>
+        <v>93.10796999999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3.81104</v>
+        <v>13.42049</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>0.39561</v>
+        <v>0.39624</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>252.15944</v>
+        <v>337.51099</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>382.22032</v>
+        <v>515.8410799999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10.52359</v>
+        <v>6208.13831</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>0.285</v>
+        <v>49.16448</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>21.85265</v>
+        <v>518.01141</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6.839720000000001</v>
+        <v>6191.57546</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>105.83173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>148.77381</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>147.156</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>906.61266</v>
+        <v>5929.59624</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>234.26113</v>
+        <v>2278.37682</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3265.50213</v>
+        <v>3575.49908</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>20674.5594</v>
+        <v>25939.18226</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3127.57176</v>
+        <v>3733.67216</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4933.13906</v>
+        <v>12564.66982</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2688.50349</v>
+        <v>13875.48031</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5515.29099</v>
+        <v>12098.14372</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>550.59212</v>
+        <v>15303.30484</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1533.50665</v>
+        <v>11266.96487</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1698.12422</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3643.55184</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8624.218000000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-625.0251800000001</v>
+        <v>-6781.64484</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>431.28183</v>
+        <v>-4675.58318</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-3180.78968</v>
+        <v>-4129.91558</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-38706.85735</v>
+        <v>-35199.32135</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-2139.31838</v>
+        <v>-4855.52805</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-5379.25044</v>
+        <v>-4109.525030000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-3023.30335</v>
+        <v>-38913.48715000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6873.85241</v>
+        <v>-19184.96708</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1830.12485</v>
+        <v>-30507.81342</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-3455.22619</v>
+        <v>-27643.91205</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-10517.62671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-16340.8925</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-47176.261</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>337.01786</v>
+        <v>393.18909</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>349.08346</v>
+        <v>403.40057</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>276.8566</v>
+        <v>381.1294399999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>182.21246</v>
+        <v>991.57664</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>130.43618</v>
+        <v>769.64109</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>445.94231</v>
+        <v>2075.35517</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>184.85742</v>
+        <v>490.69525</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>234.95221</v>
+        <v>340.79219</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>216.35665</v>
+        <v>418.04495</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>382.48213</v>
+        <v>1060.7817</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>351.6571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>590.24501</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>891.396</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-962.0430399999999</v>
+        <v>-7174.83393</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>82.19837000000001</v>
+        <v>-5078.98375</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3457.64628</v>
+        <v>-4511.04502</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-38889.06980999999</v>
+        <v>-36190.89799</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2269.75456</v>
+        <v>-5625.16914</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-5825.19275</v>
+        <v>-6184.8802</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3208.16077</v>
+        <v>-39404.1824</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7108.80462</v>
+        <v>-19525.75927</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2046.4815</v>
+        <v>-30925.85837</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-3837.70832</v>
+        <v>-28704.69375</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-10869.28381</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-16931.13751</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-48067.657</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>229</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>221</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>240</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>241</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>226</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>230</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>221</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>215</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>207</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>203</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>188</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>195</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>187</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>168</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>167</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>153</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>159</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>